--- a/docs/tutorial/Example.xlsx
+++ b/docs/tutorial/Example.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G10"/>
+  <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,27 +442,27 @@
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
+          <t>vapor_product</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>liquid_recycle</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>feed</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>liquid</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
           <t>liquid_product</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>liquid_recycle</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>feed</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>liquid</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>vapor_product</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -479,27 +479,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>S1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>S1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>F1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>F1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -553,27 +553,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>gas</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>liquid</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>liquid</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>liquid</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>liquid</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>gas</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -589,22 +589,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10704.70090239686</v>
+        <v>7899.399697190083</v>
       </c>
       <c r="C6" t="n">
-        <v>10704.70090239686</v>
+        <v>3414.554749955218</v>
       </c>
       <c r="D6" t="n">
-        <v>17316.258</v>
+        <v>11311.062</v>
       </c>
       <c r="E6" t="n">
-        <v>21409.40180479371</v>
+        <v>6829.109499910436</v>
       </c>
       <c r="F6" t="n">
-        <v>6611.412654707849</v>
+        <v>3414.554749955218</v>
       </c>
       <c r="G6" t="n">
-        <v>28020.81445950156</v>
+        <v>14728.50919710052</v>
       </c>
     </row>
     <row r="7">
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1403766346716721</v>
+        <v>0.6263799836195711</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1403766346716721</v>
+        <v>0.9258387586485441</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4681655817324967</v>
+        <v>0.7167210293781433</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1403766346716721</v>
+        <v>0.9258387586485441</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9988922619089621</v>
+        <v>0.9258387586485441</v>
       </c>
       <c r="G8" t="n">
-        <v>0.342940378505192</v>
+        <v>0.7652288472767627</v>
       </c>
     </row>
     <row r="9">
@@ -652,47 +652,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.3736200163804289</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.07416124135145591</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.2832789706218568</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.07416124135145591</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.07416124135145591</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Glycerol</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.8596233653283278</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8596233653283278</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.5318344182675032</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.8596233653283278</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.001107738091037924</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.657059621494808</v>
+        <v>0.2347711527232373</v>
       </c>
     </row>
   </sheetData>
@@ -753,13 +728,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21481819.43033824</v>
+        <v>19142573.50044908</v>
       </c>
       <c r="D3" t="n">
-        <v>552.8531615467674</v>
+        <v>492.650648804844</v>
       </c>
       <c r="E3" t="n">
-        <v>110.5706323093535</v>
+        <v>98.5301297609688</v>
       </c>
     </row>
     <row r="5">
@@ -852,7 +827,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +843,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6">
@@ -884,7 +859,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11174.81</v>
+        <v>1725.92</v>
       </c>
     </row>
     <row r="7">
@@ -900,7 +875,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8">
@@ -934,7 +909,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>74536.6272819907</v>
+        <v>25655.50790110946</v>
       </c>
     </row>
     <row r="10">
@@ -950,7 +925,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5506.498669348506</v>
+        <v>3754.462260226227</v>
       </c>
     </row>
   </sheetData>

--- a/docs/tutorial/Example.xlsx
+++ b/docs/tutorial/Example.xlsx
@@ -102,7 +102,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="27165300" cy="8229600"/>
+    <ext cx="28413075" cy="7353300"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="1" name="Image 1"/>
@@ -442,27 +442,27 @@
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
+          <t>liquid</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
           <t>liquid_recycle</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>feed</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>liquid_product</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>vapor_product</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>liquid_product</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>feed</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>liquid</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -479,22 +479,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>S1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>F1</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>S1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -516,27 +516,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>S1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -558,22 +558,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>liquid</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>liquid</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>liquid</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>gas</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>liquid</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>liquid</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>liquid</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -589,19 +589,19 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>6829.070148294055</v>
+      </c>
+      <c r="C6" t="n">
         <v>3414.535074147027</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
+        <v>11311.062</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3414.535074147027</v>
+      </c>
+      <c r="F6" t="n">
         <v>7899.400485773846</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3414.535074147027</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11311.062</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6829.070148294055</v>
       </c>
       <c r="G6" t="n">
         <v>14728.4706340679</v>
@@ -630,16 +630,16 @@
         <v>0.9258387956772193</v>
       </c>
       <c r="C8" t="n">
+        <v>0.9258387956772193</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7167210293781433</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9258387956772193</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.626380294698597</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9258387956772193</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.7167210293781433</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.9258387956772193</v>
       </c>
       <c r="G8" t="n">
         <v>0.7652285947356507</v>
@@ -655,16 +655,16 @@
         <v>0.07416120432278078</v>
       </c>
       <c r="C9" t="n">
+        <v>0.07416120432278078</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2832789706218568</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.07416120432278078</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.373619705301403</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.07416120432278078</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.2832789706218568</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.07416120432278078</v>
       </c>
       <c r="G9" t="n">
         <v>0.2347714052643493</v>

--- a/docs/tutorial/Example.xlsx
+++ b/docs/tutorial/Example.xlsx
@@ -102,7 +102,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="28413075" cy="7353300"/>
+    <ext cx="22507575" cy="10372725"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="1" name="Image 1"/>
@@ -442,22 +442,22 @@
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
+          <t>liquid_product</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
           <t>liquid</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>liquid_recycle</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>feed</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>liquid_product</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -479,22 +479,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>F1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>S1</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>-</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>S1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -516,22 +516,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>S1</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>M1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>3414.535074147027</v>
+      </c>
+      <c r="C6" t="n">
         <v>6829.070148294055</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>3414.535074147027</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>11311.062</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3414.535074147027</v>
       </c>
       <c r="F6" t="n">
         <v>7899.400485773846</v>
@@ -633,10 +633,10 @@
         <v>0.9258387956772193</v>
       </c>
       <c r="D8" t="n">
+        <v>0.9258387956772193</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.7167210293781433</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9258387956772193</v>
       </c>
       <c r="F8" t="n">
         <v>0.626380294698597</v>
@@ -658,10 +658,10 @@
         <v>0.07416120432278078</v>
       </c>
       <c r="D9" t="n">
+        <v>0.07416120432278078</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.2832789706218568</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.07416120432278078</v>
       </c>
       <c r="F9" t="n">
         <v>0.373619705301403</v>
